--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Fzd5.xlsx
@@ -549,34 +549,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N2">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P2">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q2">
-        <v>86.18422746017555</v>
+        <v>38.71406521915222</v>
       </c>
       <c r="R2">
-        <v>775.6580471415799</v>
+        <v>348.42658697237</v>
       </c>
       <c r="S2">
-        <v>0.3999526590379378</v>
+        <v>0.2349968355147261</v>
       </c>
       <c r="T2">
-        <v>0.3999526590379379</v>
+        <v>0.2349968355147262</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>17.12906</v>
       </c>
       <c r="O3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P3">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q3">
         <v>59.57626003708889</v>
@@ -635,10 +635,10 @@
         <v>536.1863403337999</v>
       </c>
       <c r="S3">
-        <v>0.2764738319245217</v>
+        <v>0.3616316835048435</v>
       </c>
       <c r="T3">
-        <v>0.2764738319245219</v>
+        <v>0.3616316835048436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N4">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P4">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q4">
-        <v>19.92078608167333</v>
+        <v>24.24017327658889</v>
       </c>
       <c r="R4">
-        <v>179.28707473506</v>
+        <v>218.1615594893</v>
       </c>
       <c r="S4">
-        <v>0.09244581750382105</v>
+        <v>0.147139391848443</v>
       </c>
       <c r="T4">
-        <v>0.09244581750382107</v>
+        <v>0.147139391848443</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N5">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P5">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q5">
-        <v>43.57923290202334</v>
+        <v>37.45286779320889</v>
       </c>
       <c r="R5">
-        <v>392.2130961182099</v>
+        <v>337.07581013888</v>
       </c>
       <c r="S5">
-        <v>0.2022368894128777</v>
+        <v>0.2273412870111456</v>
       </c>
       <c r="T5">
-        <v>0.2022368894128777</v>
+        <v>0.2273412870111456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.259748666666667</v>
+        <v>3.710289666666667</v>
       </c>
       <c r="N6">
-        <v>24.779246</v>
+        <v>11.130869</v>
       </c>
       <c r="O6">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="P6">
-        <v>0.4118513756345933</v>
+        <v>0.2419880648107798</v>
       </c>
       <c r="Q6">
-        <v>2.564007700604</v>
+        <v>1.151755538906</v>
       </c>
       <c r="R6">
-        <v>23.076069305436</v>
+        <v>10.365799850154</v>
       </c>
       <c r="S6">
-        <v>0.01189871659665544</v>
+        <v>0.006991229296053633</v>
       </c>
       <c r="T6">
-        <v>0.01189871659665544</v>
+        <v>0.006991229296053635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>17.12906</v>
       </c>
       <c r="O7">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="P7">
-        <v>0.2846990148258541</v>
+        <v>0.3723903391035988</v>
       </c>
       <c r="Q7">
         <v>1.77241235444</v>
@@ -883,10 +883,10 @@
         <v>15.95171118996</v>
       </c>
       <c r="S7">
-        <v>0.008225182901332301</v>
+        <v>0.01075865559875518</v>
       </c>
       <c r="T7">
-        <v>0.008225182901332303</v>
+        <v>0.01075865559875518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.909174</v>
+        <v>2.323136666666667</v>
       </c>
       <c r="N8">
-        <v>5.727522</v>
+        <v>6.96941</v>
       </c>
       <c r="O8">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="P8">
-        <v>0.09519610946504979</v>
+        <v>0.1515168347388597</v>
       </c>
       <c r="Q8">
-        <v>0.592649611428</v>
+        <v>0.7211527303399999</v>
       </c>
       <c r="R8">
-        <v>5.333846502852</v>
+        <v>6.49037457306</v>
       </c>
       <c r="S8">
-        <v>0.00275029196122873</v>
+        <v>0.004377442890416656</v>
       </c>
       <c r="T8">
-        <v>0.00275029196122873</v>
+        <v>0.004377442890416656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.176559</v>
+        <v>3.589418666666667</v>
       </c>
       <c r="N9">
-        <v>12.529677</v>
+        <v>10.768256</v>
       </c>
       <c r="O9">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="P9">
-        <v>0.2082535000745028</v>
+        <v>0.2341047613467618</v>
       </c>
       <c r="Q9">
-        <v>1.296495797898</v>
+        <v>1.114234521344</v>
       </c>
       <c r="R9">
-        <v>11.668462181082</v>
+        <v>10.028110692096</v>
       </c>
       <c r="S9">
-        <v>0.006016610661625134</v>
+        <v>0.006763474335616143</v>
       </c>
       <c r="T9">
-        <v>0.006016610661625135</v>
+        <v>0.006763474335616144</v>
       </c>
     </row>
   </sheetData>
